--- a/nodes_source_analyses/buildings/buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -30,8 +35,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -268,9 +276,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -525,16 +530,40 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>rake import:node NODE="nodename"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the button to update the node attributes on ETSource. 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -705,11 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -746,6 +770,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1364,7 +1394,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1375,23 +1405,23 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1411,10 +1441,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1447,7 +1477,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,17 +1490,17 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1507,7 +1537,7 @@
     <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1515,38 +1545,38 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1810,81 +1840,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2321,52 +2286,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="55.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2375,29 +2340,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="81" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="82"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="83" t="s">
         <v>62</v>
@@ -2406,33 +2371,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="83"/>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="83"/>
       <c r="C13" s="86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="83"/>
       <c r="C14" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="83" t="s">
         <v>67</v>
@@ -2441,49 +2406,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="83"/>
       <c r="C17" s="88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="83"/>
       <c r="C18" s="89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="83"/>
       <c r="C19" s="90" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="91"/>
       <c r="C21" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="91"/>
       <c r="C22" s="94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="91"/>
       <c r="C23" s="95" t="s">
         <v>75</v>
@@ -2492,49 +2457,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="132" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C2" s="133"/>
       <c r="D2" s="133"/>
@@ -2542,7 +2502,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="135"/>
       <c r="C3" s="136"/>
       <c r="D3" s="136"/>
@@ -2550,7 +2510,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="139"/>
       <c r="D4" s="139"/>
@@ -2558,10 +2518,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2572,7 +2532,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="96"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2593,7 +2553,7 @@
       </c>
       <c r="J7" s="103"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2604,10 +2564,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2617,10 +2577,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2636,10 +2596,10 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
@@ -2655,10 +2615,10 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2674,7 +2634,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>32</v>
@@ -2694,7 +2654,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>34</v>
@@ -2714,10 +2674,10 @@
       <c r="J14" s="104"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
@@ -2734,7 +2694,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>9</v>
@@ -2754,7 +2714,7 @@
       <c r="J16" s="104"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>37</v>
@@ -2774,7 +2734,7 @@
       <c r="J17" s="104"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>38</v>
@@ -2794,7 +2754,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>39</v>
@@ -2815,7 +2775,7 @@
       </c>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>40</v>
@@ -2837,10 +2797,10 @@
       </c>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>4</v>
@@ -2856,10 +2816,10 @@
       </c>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>4</v>
@@ -2875,10 +2835,10 @@
       </c>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>4</v>
@@ -2894,10 +2854,10 @@
       </c>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>4</v>
@@ -2913,10 +2873,10 @@
       </c>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>4</v>
@@ -2932,7 +2892,7 @@
       </c>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="37"/>
       <c r="C26" s="33"/>
       <c r="D26" s="19"/>
@@ -2943,7 +2903,7 @@
       <c r="I26" s="32"/>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="37"/>
       <c r="C27" s="74"/>
       <c r="D27" s="99"/>
@@ -2954,10 +2914,10 @@
       <c r="I27" s="32"/>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="100"/>
@@ -2967,7 +2927,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>41</v>
@@ -2989,7 +2949,7 @@
       </c>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>42</v>
@@ -3010,7 +2970,7 @@
       </c>
       <c r="J30" s="104"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>11</v>
@@ -3031,7 +2991,7 @@
       </c>
       <c r="J31" s="104"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>43</v>
@@ -3052,7 +3012,7 @@
       </c>
       <c r="J32" s="104"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>44</v>
@@ -3074,7 +3034,7 @@
       </c>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>45</v>
@@ -3096,7 +3056,7 @@
       </c>
       <c r="J34" s="104"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>46</v>
@@ -3117,7 +3077,7 @@
       </c>
       <c r="J35" s="104"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>49</v>
@@ -3138,7 +3098,7 @@
       </c>
       <c r="J36" s="104"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>36</v>
@@ -3157,7 +3117,7 @@
       </c>
       <c r="J37" s="104"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
       <c r="C38" s="33"/>
       <c r="D38" s="19"/>
@@ -3168,7 +3128,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="104"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="14" t="s">
         <v>7</v>
@@ -3181,7 +3141,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="104"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="33" t="s">
         <v>35</v>
@@ -3203,7 +3163,7 @@
       </c>
       <c r="J40" s="104"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="126" t="s">
         <v>47</v>
@@ -3225,7 +3185,7 @@
       </c>
       <c r="J41" s="104"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="33" t="s">
         <v>48</v>
@@ -3247,7 +3207,7 @@
       </c>
       <c r="J42" s="104"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="33" t="s">
         <v>33</v>
@@ -3266,10 +3226,10 @@
       </c>
       <c r="J43" s="104"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>4</v>
@@ -3285,10 +3245,10 @@
       </c>
       <c r="J44" s="104"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>4</v>
@@ -3304,10 +3264,10 @@
       </c>
       <c r="J45" s="104"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>4</v>
@@ -3323,10 +3283,10 @@
       </c>
       <c r="J46" s="104"/>
     </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>4</v>
@@ -3342,10 +3302,10 @@
       </c>
       <c r="J47" s="104"/>
     </row>
-    <row r="48" spans="2:10" ht="16" thickBot="1">
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>4</v>
@@ -3361,7 +3321,7 @@
       </c>
       <c r="J48" s="104"/>
     </row>
-    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="38"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
@@ -3378,43 +3338,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3429,24 +3352,23 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="60" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="60" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="60" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="8" width="4" style="60" customWidth="1"/>
     <col min="9" max="9" width="16" style="60" customWidth="1"/>
     <col min="10" max="10" width="3" style="61" customWidth="1"/>
     <col min="11" max="11" width="60" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="60"/>
+    <col min="12" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3458,10 +3380,10 @@
       <c r="J2" s="64"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="2:11" s="21" customFormat="1">
+    <row r="3" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3475,10 +3397,10 @@
       <c r="I3" s="109"/>
       <c r="J3" s="58"/>
       <c r="K3" s="109" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3490,10 +3412,10 @@
       <c r="J4" s="108"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3504,10 +3426,10 @@
       <c r="J5" s="10"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="65"/>
       <c r="C6" s="123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -3523,7 +3445,7 @@
       <c r="J6" s="67"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -3535,7 +3457,7 @@
       <c r="J7" s="71"/>
       <c r="K7" s="110"/>
     </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="65"/>
       <c r="C8" s="29" t="s">
         <v>7</v>
@@ -3549,10 +3471,10 @@
       <c r="J8" s="12"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="2:11" ht="16" thickBot="1">
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
       <c r="C9" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -3568,10 +3490,10 @@
       <c r="J9" s="12"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="C10" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -3587,7 +3509,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="65"/>
       <c r="C11" s="75" t="s">
         <v>5</v>
@@ -3606,7 +3528,7 @@
       <c r="J11" s="72"/>
       <c r="K11" s="115"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -3618,10 +3540,10 @@
       <c r="J12" s="72"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="65"/>
       <c r="C13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3632,10 +3554,10 @@
       <c r="J13" s="12"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65"/>
       <c r="C14" s="105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3651,7 +3573,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65"/>
       <c r="C15" s="76" t="s">
         <v>8</v>
@@ -3659,7 +3581,7 @@
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
       <c r="F15" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="79">
         <v>1368.90769</v>
@@ -3669,15 +3591,15 @@
       <c r="J15" s="71"/>
       <c r="K15" s="120"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="65"/>
       <c r="C16" s="112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="127">
         <f>ROUND((G17*G6*1000),2)</f>
@@ -3688,15 +3610,15 @@
       <c r="J16" s="71"/>
       <c r="K16" s="120"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="65"/>
       <c r="C17" s="105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="127">
         <v>19.058637749999999</v>
@@ -3706,10 +3628,10 @@
       <c r="J17" s="71"/>
       <c r="K17" s="120"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="65"/>
       <c r="C18" s="112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="78"/>
       <c r="E18" s="78"/>
@@ -3724,15 +3646,15 @@
       <c r="J18" s="71"/>
       <c r="K18" s="116"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
       <c r="C19" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
       <c r="F19" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="79">
         <v>0</v>
@@ -3745,11 +3667,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3764,22 +3681,22 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3791,7 +3708,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3805,7 +3722,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3817,7 +3734,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
@@ -3833,13 +3750,13 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>15</v>
@@ -3848,10 +3765,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/buildings/buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0425A3-FFA6-154D-9506-1101CCBC75F2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -35,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>Source</t>
   </si>
@@ -465,33 +466,6 @@
     </r>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <r>
-      <t>simult_s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.ad</t>
   </si>
   <si>
@@ -540,6 +514,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>rake import:node NODE="nodename"</t>
     </r>
@@ -558,14 +533,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,6 +685,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,6 +693,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,6 +701,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,6 +709,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,6 +717,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,17 +725,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,6 +752,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -776,6 +760,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1843,6 +1828,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2282,47 +2270,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
@@ -2331,7 +2319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2340,29 +2328,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="81" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="82"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="83" t="s">
         <v>62</v>
@@ -2371,33 +2359,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="83"/>
       <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="83"/>
       <c r="C13" s="86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="83"/>
       <c r="C14" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="83" t="s">
         <v>67</v>
@@ -2406,49 +2394,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="83"/>
       <c r="C17" s="88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="83"/>
       <c r="C18" s="89" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="83"/>
       <c r="C19" s="90" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="91"/>
       <c r="C21" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="91"/>
       <c r="C22" s="94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="91"/>
       <c r="C23" s="95" t="s">
         <v>75</v>
@@ -2461,40 +2449,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K49"/>
+  <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="132" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2" s="133"/>
       <c r="D2" s="133"/>
@@ -2502,7 +2490,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="135"/>
       <c r="C3" s="136"/>
       <c r="D3" s="136"/>
@@ -2510,7 +2498,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="38" customHeight="1">
       <c r="B4" s="138"/>
       <c r="C4" s="139"/>
       <c r="D4" s="139"/>
@@ -2518,10 +2506,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2532,7 +2520,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="96"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2553,7 +2541,7 @@
       </c>
       <c r="J7" s="103"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2564,7 +2552,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
@@ -2577,10 +2565,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="130" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2596,7 +2584,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="128" t="s">
         <v>100</v>
@@ -2615,10 +2603,10 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
       <c r="C12" s="130" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2634,7 +2622,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>32</v>
@@ -2654,7 +2642,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>34</v>
@@ -2674,7 +2662,7 @@
       <c r="J14" s="104"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="121" t="s">
         <v>96</v>
@@ -2694,7 +2682,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>9</v>
@@ -2714,7 +2702,7 @@
       <c r="J16" s="104"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>37</v>
@@ -2734,7 +2722,7 @@
       <c r="J17" s="104"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>38</v>
@@ -2754,7 +2742,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>39</v>
@@ -2775,7 +2763,7 @@
       </c>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>40</v>
@@ -2797,151 +2785,163 @@
       </c>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="37"/>
-      <c r="C21" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="43">
-        <v>1</v>
-      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="104"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="37"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="104"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
+      <c r="B23" s="37"/>
+      <c r="C23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
+      <c r="B24" s="37"/>
+      <c r="C24" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="44">
+        <f>'Research data'!G14</f>
+        <v>11882118.75</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="43">
-        <v>1</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="104"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
+      <c r="B25" s="37"/>
+      <c r="C25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="43">
-        <v>0</v>
-      </c>
       <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="H25" s="33"/>
       <c r="I25" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="100"/>
+      <c r="C26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0</v>
+      </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
+      <c r="I26" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="C27" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
-      <c r="C28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="C28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="98">
+        <f>'Research data'!G16</f>
+        <v>165428.98000000001</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="80" t="s">
+        <v>52</v>
+      </c>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="44">
-        <f>'Research data'!G14</f>
-        <v>11882118.75</v>
+        <v>50</v>
+      </c>
+      <c r="E29" s="43">
+        <f>'Research data'!G18</f>
+        <v>0</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="80" t="s">
@@ -2949,41 +2949,41 @@
       </c>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="44">
+        <v>50</v>
+      </c>
+      <c r="E30" s="101">
         <v>0</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="111" t="s">
         <v>52</v>
       </c>
       <c r="J30" s="104"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="44">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="43">
+        <v>0.06</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="31" t="s">
@@ -2991,346 +2991,239 @@
       </c>
       <c r="J31" s="104"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E32" s="44">
         <v>0</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J32" s="104"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" s="37"/>
-      <c r="C33" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="98">
-        <f>'Research data'!G16</f>
-        <v>165428.98000000001</v>
-      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="G33" s="33"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="80" t="s">
-        <v>52</v>
-      </c>
+      <c r="I33" s="32"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
-      <c r="C34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="43">
-        <f>'Research data'!G18</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="80" t="s">
-        <v>52</v>
-      </c>
+      <c r="C34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="99"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="104"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="101">
+        <v>3</v>
+      </c>
+      <c r="E35" s="44">
+        <f>'Research data'!G9</f>
         <v>0</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="111" t="s">
+      <c r="I35" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="104"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
-      <c r="C36" s="33" t="s">
-        <v>49</v>
+      <c r="C36" s="126" t="s">
+        <v>47</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="43">
-        <v>0.06</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="98">
+        <f>'Research data'!G10</f>
+        <v>0</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H36" s="33"/>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="113" t="s">
         <v>52</v>
       </c>
       <c r="J36" s="104"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E37" s="44">
+        <f>'Research data'!G11</f>
+        <v>15</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="104"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
+      <c r="B38" s="37"/>
+      <c r="C38" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="44">
         <v>0</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="104"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="37"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="102"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="32"/>
+      <c r="I38" s="122" t="s">
+        <v>52</v>
+      </c>
       <c r="J38" s="104"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
-      <c r="C39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+      <c r="C39" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="98">
+        <v>6</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="J39" s="104"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
-      <c r="C40" s="33" t="s">
-        <v>35</v>
+      <c r="C40" s="117" t="s">
+        <v>91</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="44">
-        <f>'Research data'!G9</f>
+        <v>4</v>
+      </c>
+      <c r="E40" s="98">
         <v>0</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J40" s="104"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
-      <c r="C41" s="126" t="s">
-        <v>47</v>
+      <c r="C41" s="117" t="s">
+        <v>92</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="98">
-        <f>'Research data'!G10</f>
-        <v>0</v>
+        <v>158410</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="G41" s="33"/>
       <c r="H41" s="33"/>
-      <c r="I41" s="113" t="s">
+      <c r="I41" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J41" s="104"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
-      <c r="C42" s="33" t="s">
-        <v>48</v>
+      <c r="C42" s="117" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="44">
-        <f>'Research data'!G11</f>
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="E42" s="98">
+        <v>21700</v>
       </c>
       <c r="F42" s="33"/>
-      <c r="G42" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="G42" s="33"/>
       <c r="H42" s="33"/>
-      <c r="I42" s="114" t="s">
+      <c r="I42" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J42" s="104"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="37"/>
-      <c r="C43" s="33" t="s">
-        <v>33</v>
+      <c r="C43" s="117" t="s">
+        <v>94</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="44">
-        <v>0</v>
+      <c r="E43" s="98">
+        <v>40</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="122" t="s">
+      <c r="I43" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="104"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="98">
-        <v>6</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="104"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="98">
-        <v>0</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="104"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="98">
-        <v>158410</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="104"/>
-    </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="98">
-        <v>21700</v>
-      </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="104"/>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="98">
-        <v>40</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="104"/>
-    </row>
-    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
+    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3342,33 +3235,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="60" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="60" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="60" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="60" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="60" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="60" customWidth="1"/>
     <col min="8" max="8" width="4" style="60" customWidth="1"/>
     <col min="9" max="9" width="16" style="60" customWidth="1"/>
     <col min="10" max="10" width="3" style="61" customWidth="1"/>
     <col min="11" max="11" width="60" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="60"/>
+    <col min="12" max="16384" width="10.6640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3380,7 +3273,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="109" t="s">
         <v>78</v>
@@ -3400,7 +3293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -3412,7 +3305,7 @@
       <c r="J4" s="108"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
         <v>77</v>
@@ -3426,7 +3319,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="65"/>
       <c r="C6" s="123" t="s">
         <v>97</v>
@@ -3445,7 +3338,7 @@
       <c r="J6" s="67"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="65"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -3457,7 +3350,7 @@
       <c r="J7" s="71"/>
       <c r="K7" s="110"/>
     </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="17" thickBot="1">
       <c r="B8" s="65"/>
       <c r="C8" s="29" t="s">
         <v>7</v>
@@ -3471,7 +3364,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="65"/>
       <c r="C9" s="75" t="s">
         <v>99</v>
@@ -3490,7 +3383,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="75" t="s">
         <v>98</v>
@@ -3509,7 +3402,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="65"/>
       <c r="C11" s="75" t="s">
         <v>5</v>
@@ -3528,7 +3421,7 @@
       <c r="J11" s="72"/>
       <c r="K11" s="115"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="65"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -3540,7 +3433,7 @@
       <c r="J12" s="72"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="65"/>
       <c r="C13" s="13" t="s">
         <v>82</v>
@@ -3554,7 +3447,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="65"/>
       <c r="C14" s="105" t="s">
         <v>83</v>
@@ -3573,7 +3466,7 @@
       <c r="J14" s="71"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="65"/>
       <c r="C15" s="76" t="s">
         <v>8</v>
@@ -3591,7 +3484,7 @@
       <c r="J15" s="71"/>
       <c r="K15" s="120"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="65"/>
       <c r="C16" s="112" t="s">
         <v>84</v>
@@ -3610,7 +3503,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="120"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="65"/>
       <c r="C17" s="105" t="s">
         <v>85</v>
@@ -3628,7 +3521,7 @@
       <c r="J17" s="71"/>
       <c r="K17" s="120"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="65"/>
       <c r="C18" s="112" t="s">
         <v>86</v>
@@ -3646,7 +3539,7 @@
       <c r="J18" s="71"/>
       <c r="K18" s="116"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="65"/>
       <c r="C19" s="105" t="s">
         <v>86</v>
@@ -3671,8 +3564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K5"/>
@@ -3681,22 +3574,22 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
     <col min="11" max="11" width="66" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="45"/>
+    <col min="12" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3708,7 +3601,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3722,7 +3615,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3734,7 +3627,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>28</v>
@@ -3750,13 +3643,13 @@
         <v>29</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>15</v>

--- a/nodes_source_analyses/buildings/buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_cooling_collective_heatpump_water_water_ts_electricity.converter.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0425A3-FFA6-154D-9506-1101CCBC75F2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5739C-7C29-D546-BCDF-765A0BE6C265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
+    <sheet name="Notes" sheetId="16" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="exchange_rate_2011_2010" localSheetId="4">#REF!</definedName>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
     <definedName name="Final_demand_residences">'[1]Fuel aggregation'!$L$11</definedName>
     <definedName name="hours_a_year">#REF!</definedName>
@@ -36,10 +39,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>Source</t>
   </si>
@@ -76,9 +85,6 @@
   </si>
   <si>
     <t>Initial investment costs</t>
-  </si>
-  <si>
-    <t>households_supplied_per_unit</t>
   </si>
   <si>
     <t>yes=1, no=0</t>
@@ -324,31 +330,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>We</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>euro/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>KW</t>
     </r>
     <r>
@@ -529,6 +510,36 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>Vesta</t>
+  </si>
+  <si>
+    <t>vaste investeringen</t>
+  </si>
+  <si>
+    <t>euro/aansluiting</t>
+  </si>
+  <si>
+    <t>variable investeringen</t>
+  </si>
+  <si>
+    <t>euro/kW</t>
+  </si>
+  <si>
+    <t>euro/unit</t>
+  </si>
+  <si>
+    <t>Vesta Functioneel Ontwerp 4.0</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>same as space_heater</t>
+  </si>
 </sst>
 </file>
 
@@ -538,7 +549,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1330,7 +1341,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1446,9 +1457,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1534,9 +1542,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1564,6 +1569,13 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1836,6 +1848,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35295517-9199-5544-BC18-E3A02263C330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="1308100"/>
+          <a:ext cx="10058400" cy="5926015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1944,6 +2005,27 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Research data"/>
+      <sheetName val="Sources"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2292,7 +2374,7 @@
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -2304,28 +2386,28 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2340,106 +2422,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="82"/>
+      <c r="B9" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="84" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="83"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86" t="s">
-        <v>65</v>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
-        <v>66</v>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="86" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="88" t="s">
-        <v>69</v>
+      <c r="B17" s="82"/>
+      <c r="C17" s="87" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="89" t="s">
-        <v>70</v>
+      <c r="B18" s="82"/>
+      <c r="C18" s="88" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="90" t="s">
-        <v>71</v>
+      <c r="B19" s="82"/>
+      <c r="C19" s="89" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92" t="s">
-        <v>72</v>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="93" t="s">
-        <v>73</v>
+      <c r="B21" s="90"/>
+      <c r="C21" s="92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="94" t="s">
+      <c r="B22" s="90"/>
+      <c r="C22" s="93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="90"/>
+      <c r="C23" s="94" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="91"/>
-      <c r="C23" s="95" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2453,10 +2535,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K44"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2481,28 +2563,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
+      <c r="B2" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="38" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -2521,25 +2603,25 @@
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
-      <c r="B7" s="96"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="103"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
@@ -2555,7 +2637,7 @@
     <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2567,46 +2649,42 @@
     </row>
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="130" t="s">
-        <v>102</v>
+      <c r="C10" s="129" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="43">
-        <v>0.9</v>
+        <v>0.94760397340000002</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="31" t="s">
-        <v>52</v>
-      </c>
+      <c r="I10" s="31"/>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
-      <c r="C11" s="128" t="s">
-        <v>100</v>
+      <c r="C11" s="127" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="43">
-        <v>0.1</v>
+        <v>5.2396026630000002E-2</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="31" t="s">
-        <v>52</v>
-      </c>
+      <c r="I11" s="31"/>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
-      <c r="C12" s="130" t="s">
-        <v>103</v>
+      <c r="C12" s="129" t="s">
+        <v>101</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>4</v>
@@ -2618,14 +2696,14 @@
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
       <c r="I12" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>4</v>
@@ -2637,15 +2715,15 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J13" s="103"/>
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>4</v>
@@ -2657,15 +2735,15 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J14" s="103"/>
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
-      <c r="C15" s="121" t="s">
-        <v>96</v>
+      <c r="C15" s="120" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>4</v>
@@ -2677,29 +2755,29 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J15" s="103"/>
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J16" s="103"/>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="2:11" ht="17" thickBot="1">
@@ -2717,9 +2795,9 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J17" s="103"/>
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="2:11" ht="17" thickBot="1">
@@ -2728,19 +2806,20 @@
         <v>38</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E18" s="44">
         <v>0</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="33"/>
       <c r="I18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="J18" s="103"/>
     </row>
     <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
@@ -2748,77 +2827,78 @@
         <v>39</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="44">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="E19" s="43">
+        <f>'Research data'!G6</f>
+        <v>2.25</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="104"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
+        <v>51</v>
+      </c>
+      <c r="J19" s="103"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="37"/>
-      <c r="C20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="43">
-        <f>'Research data'!G6</f>
-        <v>8.68</v>
-      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
-        <v>53</v>
-      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="104"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="103"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="37"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="J21" s="103"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
+      <c r="C22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="32"/>
       <c r="G22" s="74"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="104"/>
+      <c r="J22" s="103"/>
     </row>
     <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="37"/>
-      <c r="C23" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="104"/>
+      <c r="C23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="44">
+        <f>'Research data'!G14</f>
+        <v>953500</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
@@ -2826,63 +2906,62 @@
         <v>41</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="44">
-        <f>'Research data'!G14</f>
-        <v>11882118.75</v>
+        <v>0</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="104"/>
+      <c r="I24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="103"/>
     </row>
     <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="44">
         <v>0</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J25" s="103"/>
     </row>
     <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="44">
         <v>0</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J26" s="103"/>
     </row>
     <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
@@ -2890,20 +2969,21 @@
         <v>43</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="44">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="97">
+        <f>'Research data'!G15</f>
+        <v>67530</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="104"/>
+      <c r="I27" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="103"/>
     </row>
     <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
@@ -2911,21 +2991,21 @@
         <v>44</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="98">
-        <f>'Research data'!G16</f>
-        <v>165428.98000000001</v>
+        <v>49</v>
+      </c>
+      <c r="E28" s="43">
+        <f>'Research data'!G17</f>
+        <v>0</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H28" s="33"/>
-      <c r="I28" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="104"/>
+      <c r="I28" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="103"/>
     </row>
     <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
@@ -2933,10 +3013,9 @@
         <v>45</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="43">
-        <f>'Research data'!G18</f>
+        <v>49</v>
+      </c>
+      <c r="E29" s="100">
         <v>0</v>
       </c>
       <c r="F29" s="33"/>
@@ -2944,286 +3023,265 @@
         <v>56</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="104"/>
+      <c r="I29" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="101">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="43">
+        <v>0.04</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="104"/>
+      <c r="I30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="103"/>
     </row>
     <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="43">
-        <v>0.06</v>
+        <v>9</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="104"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1">
+        <v>51</v>
+      </c>
+      <c r="J31" s="103"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="37"/>
-      <c r="C32" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="44">
-        <v>0</v>
-      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="104"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="I32" s="32"/>
+      <c r="J32" s="103"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="C33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="104"/>
+      <c r="J33" s="103"/>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
-      <c r="C34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="104"/>
+      <c r="C34" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="44">
+        <f>'Research data'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="103"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
-      <c r="C35" s="33" t="s">
-        <v>35</v>
+      <c r="C35" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="44">
-        <f>'Research data'!G9</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="97">
+        <f>'Research data'!G10</f>
         <v>0</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="104"/>
+      <c r="I35" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="103"/>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="33" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="98">
-        <f>'Research data'!G10</f>
-        <v>0</v>
+      <c r="E36" s="44">
+        <f>'Research data'!G11</f>
+        <v>15</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J36" s="103"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" s="44">
-        <f>'Research data'!G11</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="104"/>
+      <c r="I37" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="103"/>
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
-      <c r="C38" s="33" t="s">
-        <v>33</v>
+      <c r="C38" s="116" t="s">
+        <v>88</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="44">
-        <v>0</v>
+      <c r="E38" s="97">
+        <v>6</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="104"/>
+      <c r="I38" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
-      <c r="C39" s="117" t="s">
-        <v>90</v>
+      <c r="C39" s="116" t="s">
+        <v>89</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="98">
-        <v>6</v>
+      <c r="E39" s="97">
+        <v>0</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J39" s="103"/>
     </row>
     <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
-      <c r="C40" s="117" t="s">
-        <v>91</v>
+      <c r="C40" s="116" t="s">
+        <v>90</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="98">
-        <v>0</v>
+      <c r="E40" s="97">
+        <v>158410</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
-      <c r="C41" s="117" t="s">
-        <v>92</v>
+      <c r="C41" s="116" t="s">
+        <v>91</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="98">
-        <v>158410</v>
+      <c r="E41" s="97">
+        <v>21700</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="104"/>
+        <v>51</v>
+      </c>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
-      <c r="C42" s="117" t="s">
-        <v>93</v>
+      <c r="C42" s="116" t="s">
+        <v>92</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="98">
-        <v>21700</v>
+      <c r="E42" s="97">
+        <v>40</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="104"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="98">
-        <v>40</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="104"/>
-    </row>
-    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="J42" s="103"/>
+    </row>
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3239,10 +3297,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3275,22 +3333,24 @@
     </row>
     <row r="3" spans="2:11" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="109" t="s">
-        <v>78</v>
+      <c r="C3" s="108" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="F3" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108" t="s">
+        <v>106</v>
+      </c>
       <c r="J3" s="58"/>
-      <c r="K3" s="109" t="s">
-        <v>87</v>
+      <c r="K3" s="108" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -3302,13 +3362,13 @@
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="108"/>
+      <c r="J4" s="107"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="B5" s="65"/>
       <c r="C5" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3321,17 +3381,17 @@
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="65"/>
-      <c r="C6" s="123" t="s">
-        <v>97</v>
+      <c r="C6" s="122" t="s">
+        <v>95</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
       <c r="F6" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="124">
-        <f>ROUND(8.681,2)</f>
-        <v>8.68</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="123">
+        <f>Notes!E6/1000</f>
+        <v>2.25</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -3348,7 +3408,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
-      <c r="K7" s="110"/>
+      <c r="K7" s="109"/>
     </row>
     <row r="8" spans="2:11" ht="17" thickBot="1">
       <c r="B8" s="65"/>
@@ -3367,14 +3427,14 @@
     <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="65"/>
       <c r="C9" s="75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="118">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
@@ -3386,14 +3446,14 @@
     <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="119">
+      <c r="G10" s="118">
         <f>ROUND(0,0)</f>
         <v>0</v>
       </c>
@@ -3412,14 +3472,14 @@
       <c r="F11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="118">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="115"/>
+      <c r="K11" s="114"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="65"/>
@@ -3436,7 +3496,7 @@
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="65"/>
       <c r="C13" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3449,113 +3509,100 @@
     </row>
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="65"/>
-      <c r="C14" s="105" t="s">
-        <v>83</v>
+      <c r="C14" s="104" t="s">
+        <v>81</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="79">
-        <f>ROUND(G15*G6*1000,2)</f>
-        <v>11882118.75</v>
+      <c r="F14" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="78">
+        <f>I14</f>
+        <v>953500</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="78">
+        <f>Notes!E12</f>
+        <v>953500</v>
+      </c>
       <c r="J14" s="71"/>
-      <c r="K14" s="116"/>
+      <c r="K14" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="65"/>
-      <c r="C15" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="79">
-        <v>1368.90769</v>
-      </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="131"/>
+      <c r="C15" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="126">
+        <f>ROUND((G16*G6*1000),2)</f>
+        <v>67530</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="71"/>
-      <c r="K15" s="120"/>
+      <c r="K15" s="119"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="65"/>
-      <c r="C16" s="112" t="s">
-        <v>84</v>
+      <c r="C16" s="104" t="s">
+        <v>83</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="127">
-        <f>ROUND((G17*G6*1000),2)</f>
-        <v>165428.98000000001</v>
+      <c r="F16" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="142">
+        <v>30.013332999999999</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="129"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="71"/>
-      <c r="K16" s="120"/>
+      <c r="K16" s="143" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="65"/>
-      <c r="C17" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="127">
-        <v>19.058637749999999</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="78">
+        <v>0</v>
+      </c>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
       <c r="J17" s="71"/>
-      <c r="K17" s="120"/>
+      <c r="K17" s="115"/>
     </row>
     <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="65"/>
-      <c r="C18" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="79">
+      <c r="C18" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="78">
         <v>0</v>
       </c>
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
       <c r="J18" s="71"/>
-      <c r="K18" s="116"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="65"/>
-      <c r="C19" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="30"/>
+      <c r="K18" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3604,7 +3651,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
@@ -3630,33 +3677,184 @@
     <row r="5" spans="2:11">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="56"/>
       <c r="E5" s="56" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176FDDA4-2A2C-934D-96CC-B2671ECFCE08}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="46" customWidth="1"/>
+    <col min="11" max="11" width="66" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="50"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="50"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53">
+        <v>2250</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="53"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="45">
+        <v>8500</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="45">
+        <v>420</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="45">
+        <f>E10+E11*E6</f>
+        <v>953500</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="139"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="141"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="E20" s="141"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>